--- a/mid_df_qu.xlsx
+++ b/mid_df_qu.xlsx
@@ -58,6 +58,9 @@
     <t>Cooman</t>
   </si>
   <si>
+    <t>w33</t>
+  </si>
+  <si>
     <t>Chessie</t>
   </si>
   <si>
@@ -67,141 +70,138 @@
     <t>小可</t>
   </si>
   <si>
-    <t>w33</t>
-  </si>
-  <si>
     <t>No[o]ne-</t>
   </si>
   <si>
     <t>YawaR</t>
   </si>
   <si>
+    <t>ThuG-</t>
+  </si>
+  <si>
+    <t>SumaiL</t>
+  </si>
+  <si>
+    <t>Nix</t>
+  </si>
+  <si>
+    <t>Daxak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ARMEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J E I M A R I </t>
+  </si>
+  <si>
+    <t>Afoninje</t>
+  </si>
+  <si>
+    <t>Fbz</t>
+  </si>
+  <si>
+    <t>Madara</t>
+  </si>
+  <si>
+    <t>Fata</t>
+  </si>
+  <si>
+    <t>| Draken-_-</t>
+  </si>
+  <si>
+    <t>MidOne</t>
+  </si>
+  <si>
+    <t>Naive-</t>
+  </si>
+  <si>
+    <t>Ryoya</t>
+  </si>
+  <si>
+    <t>Kamma</t>
+  </si>
+  <si>
+    <t>CCnC</t>
+  </si>
+  <si>
+    <t>Moogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Luck </t>
+  </si>
+  <si>
+    <t>BoraNija</t>
+  </si>
+  <si>
+    <t>_Mikoto_</t>
+  </si>
+  <si>
+    <t>Nasjo</t>
+  </si>
+  <si>
+    <t>Dstones</t>
+  </si>
+  <si>
     <t>MagicaL</t>
   </si>
   <si>
-    <t>ThuG-</t>
-  </si>
-  <si>
-    <t>SumaiL</t>
-  </si>
-  <si>
-    <t>Afoninje</t>
-  </si>
-  <si>
-    <t>hFn k3</t>
-  </si>
-  <si>
-    <t>| Draken-_-</t>
-  </si>
-  <si>
-    <t>Daxak</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ARMEL</t>
-  </si>
-  <si>
-    <t>Fbz</t>
-  </si>
-  <si>
-    <t>Madara</t>
-  </si>
-  <si>
-    <t>Fata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J E I M A R I </t>
-  </si>
-  <si>
-    <t>Naive-</t>
-  </si>
-  <si>
-    <t>Ryoya</t>
-  </si>
-  <si>
-    <t>Kamma</t>
-  </si>
-  <si>
-    <t>CCnC</t>
-  </si>
-  <si>
-    <t>Moogy</t>
-  </si>
-  <si>
-    <t>BoraNija</t>
-  </si>
-  <si>
-    <t>_Mikoto_</t>
-  </si>
-  <si>
-    <t>Nasjo</t>
-  </si>
-  <si>
-    <t>Dstones</t>
+    <t>k`wonderkid</t>
+  </si>
+  <si>
+    <t>Gunnar</t>
+  </si>
+  <si>
+    <t>Topson</t>
+  </si>
+  <si>
+    <t>Pingvincek</t>
+  </si>
+  <si>
+    <t>ChYuaN</t>
+  </si>
+  <si>
+    <t>young G</t>
+  </si>
+  <si>
+    <t>MATUMBAMAN</t>
+  </si>
+  <si>
+    <t>Sooths</t>
+  </si>
+  <si>
+    <t>Ori</t>
+  </si>
+  <si>
+    <t>Dendi</t>
+  </si>
+  <si>
+    <t>qojqva</t>
+  </si>
+  <si>
+    <t>` AlaCrity -</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>Handsken</t>
   </si>
   <si>
     <t>Timado</t>
   </si>
   <si>
-    <t>MidOne</t>
-  </si>
-  <si>
-    <t>k`wonderkid</t>
-  </si>
-  <si>
-    <t>Gunnar</t>
-  </si>
-  <si>
-    <t>Pingvincek</t>
-  </si>
-  <si>
-    <t>Topson</t>
-  </si>
-  <si>
-    <t>ChYuaN</t>
-  </si>
-  <si>
-    <t>young G</t>
-  </si>
-  <si>
-    <t>Sooths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Luck </t>
-  </si>
-  <si>
-    <t>Ori</t>
-  </si>
-  <si>
-    <t>Dendi</t>
-  </si>
-  <si>
-    <t>` AlaCrity -</t>
-  </si>
-  <si>
-    <t>Nine</t>
-  </si>
-  <si>
-    <t>MATUMBAMAN</t>
-  </si>
-  <si>
-    <t>qojqva</t>
-  </si>
-  <si>
     <t>Nisha</t>
   </si>
   <si>
+    <t>Robo-Z</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>Nix</t>
-  </si>
-  <si>
-    <t>Robo-Z</t>
-  </si>
-  <si>
     <t>GeneRaL</t>
   </si>
   <si>
@@ -214,70 +214,73 @@
     <t>一</t>
   </si>
   <si>
+    <t>Wisper</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>p4pita</t>
+  </si>
+  <si>
+    <t>yChen</t>
+  </si>
+  <si>
+    <t>Zyd</t>
+  </si>
+  <si>
+    <t>Destiny</t>
+  </si>
+  <si>
+    <t>Sccc</t>
+  </si>
+  <si>
+    <t>Setsu</t>
+  </si>
+  <si>
+    <t>Xm</t>
+  </si>
+  <si>
+    <t>esk</t>
+  </si>
+  <si>
+    <t>YRG</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>W1sh-</t>
+  </si>
+  <si>
+    <t>Mushi-</t>
+  </si>
+  <si>
+    <t>4dr &lt;3 Déia</t>
+  </si>
+  <si>
+    <t>MagE-</t>
+  </si>
+  <si>
+    <t>Fey</t>
+  </si>
+  <si>
+    <t>garter</t>
+  </si>
+  <si>
+    <t>Faker-</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
     <t>Pikachu</t>
   </si>
   <si>
-    <t>Wisper</t>
-  </si>
-  <si>
-    <t>ASD</t>
-  </si>
-  <si>
-    <t>p4pita</t>
-  </si>
-  <si>
-    <t>yChen</t>
-  </si>
-  <si>
-    <t>Zyd</t>
-  </si>
-  <si>
-    <t>Destiny</t>
-  </si>
-  <si>
-    <t>Sccc</t>
-  </si>
-  <si>
-    <t>Setsu</t>
-  </si>
-  <si>
-    <t>Xm</t>
-  </si>
-  <si>
-    <t>esk</t>
-  </si>
-  <si>
-    <t>YRG</t>
-  </si>
-  <si>
-    <t>worthless</t>
-  </si>
-  <si>
-    <t>W1sh-</t>
-  </si>
-  <si>
-    <t>Mushi-</t>
-  </si>
-  <si>
-    <t>MagE-</t>
-  </si>
-  <si>
-    <t>Fey</t>
-  </si>
-  <si>
-    <t>garter</t>
-  </si>
-  <si>
-    <t>4dr &lt;3 Déia</t>
-  </si>
-  <si>
     <t>kodos-</t>
   </si>
   <si>
-    <t>Faker-</t>
-  </si>
-  <si>
-    <t>897</t>
+    <t>Iceberg</t>
   </si>
   <si>
     <t>hyko</t>
@@ -289,9 +292,6 @@
     <t>Benhur</t>
   </si>
   <si>
-    <t>Iceberg</t>
-  </si>
-  <si>
     <t>jiajia</t>
   </si>
   <si>
@@ -322,10 +322,10 @@
     <t>430</t>
   </si>
   <si>
+    <t>Syuuu</t>
+  </si>
+  <si>
     <t>AlienManaBanana</t>
-  </si>
-  <si>
-    <t>Syuuu</t>
   </si>
   <si>
     <t>miggeL.Z</t>
@@ -762,16 +762,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>173.4305498879576</v>
+        <v>188.1215564243213</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>14.45254582399647</v>
+        <v>14.47088895571702</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -932,16 +932,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>741.8076987773294</v>
+        <v>385.2619336690294</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>12.16078194716934</v>
+        <v>12.03943542715717</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -949,16 +949,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>787.183031972841</v>
+        <v>637.1040723209996</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>11.92701563595214</v>
+        <v>12.02083155322641</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -966,16 +966,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>452.1262204755704</v>
+        <v>787.183031972841</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E14">
-        <v>11.89805843356764</v>
+        <v>11.92701563595214</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -983,16 +983,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>430.2931808199393</v>
+        <v>452.1262204755704</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>11.62954542756593</v>
+        <v>11.89805843356764</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1000,16 +1000,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>485.8745056559237</v>
+        <v>408.7238871436237</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>11.56844061085532</v>
+        <v>11.67782534696068</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1034,16 +1034,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>697.0791132077444</v>
+        <v>34.17406355058651</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>11.4275264460286</v>
+        <v>11.39135451686217</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>34.17406355058651</v>
+        <v>431.5140579338859</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>11.39135451686217</v>
+        <v>11.35563310352331</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1068,16 +1068,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>431.5140579338859</v>
+        <v>259.9248300414512</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>11.35563310352331</v>
+        <v>11.30107956701962</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1085,16 +1085,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>749.0767525486175</v>
+        <v>123.6568833784116</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>11.34964776588814</v>
+        <v>11.24153485258288</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1102,16 +1102,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>124.5027320707408</v>
+        <v>247.2008260408327</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>11.31843018824916</v>
+        <v>11.23640118367422</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1119,16 +1119,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>698.7316318038572</v>
+        <v>629.0636157347867</v>
       </c>
       <c r="C23">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>11.26986502909447</v>
+        <v>11.23327885240691</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1136,16 +1136,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>123.6568833784116</v>
+        <v>583.5850273048753</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>11.24153485258288</v>
+        <v>11.22278898663222</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1153,16 +1153,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>247.2008260408327</v>
+        <v>605.9873227971523</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>11.23640118367422</v>
+        <v>11.22198745920652</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1170,16 +1170,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>629.0636157347867</v>
+        <v>56.05301806603963</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>11.23327885240691</v>
+        <v>11.21060361320793</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1187,16 +1187,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>56.05301806603963</v>
+        <v>66.91007833533155</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>11.21060361320793</v>
+        <v>11.15167972255526</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1204,50 +1204,50 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>66.91007833533155</v>
+        <v>511.2980056671664</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E28">
-        <v>11.15167972255526</v>
+        <v>11.11517403624275</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>598.3716919321563</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>11.0809572580029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>163009603</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>398.6735187876649</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>36</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>11.07426441076847</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>616.005783764886</v>
-      </c>
-      <c r="C30">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>56</v>
-      </c>
-      <c r="E30">
-        <v>11.00010328151582</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1255,16 +1255,16 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>670.0551012907378</v>
+        <v>330.6256394438907</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>10.98450985722521</v>
+        <v>11.02085464812969</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>64.83219611458932</v>
+        <v>162.3130947712708</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>10.80536601909822</v>
+        <v>10.82087298475139</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1374,16 +1374,16 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>613.4036812874043</v>
+        <v>64.83219611458932</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>10.76146809276148</v>
+        <v>10.80536601909822</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1391,16 +1391,16 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>118.2295573694805</v>
+        <v>613.4036812874043</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E39">
-        <v>10.74814157904368</v>
+        <v>10.76146809276148</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1408,16 +1408,16 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>236.0310521053409</v>
+        <v>118.2295573694805</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>10.7286841866064</v>
+        <v>10.74814157904368</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1425,16 +1425,16 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>289.4081662145272</v>
+        <v>236.0310521053409</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E41">
-        <v>10.71882097090842</v>
+        <v>10.7286841866064</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1442,16 +1442,16 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>385.061717624174</v>
+        <v>542.7033001248943</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E42">
-        <v>10.69615882289372</v>
+        <v>10.6412411789195</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1493,16 +1493,16 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>211.1948441392158</v>
+        <v>433.2573167151864</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E45">
-        <v>10.55974220696079</v>
+        <v>10.56725162719967</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1510,16 +1510,16 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>526.0620716387141</v>
+        <v>211.1948441392158</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>10.52124143277428</v>
+        <v>10.55974220696079</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1561,16 +1561,16 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>72.47691888235293</v>
+        <v>238.7708709601719</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>10.35384555462185</v>
+        <v>10.38134221565965</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1578,16 +1578,16 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>195.9906699898423</v>
+        <v>72.47691888235293</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>10.31529842051801</v>
+        <v>10.35384555462185</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1629,16 +1629,16 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>122.9068119407997</v>
+        <v>503.5010729549606</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E53">
-        <v>10.24223432839998</v>
+        <v>10.27553210112164</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1646,16 +1646,16 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>491.2459875876706</v>
+        <v>122.9068119407997</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>10.23429140807647</v>
+        <v>10.24223432839998</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1663,16 +1663,16 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>326.7666008609542</v>
+        <v>491.2459875876706</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E55">
-        <v>10.21145627690482</v>
+        <v>10.23429140807647</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1680,16 +1680,16 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>590.948902414704</v>
+        <v>51.07554074393327</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>10.18877417956386</v>
+        <v>10.21510814878665</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1697,16 +1697,16 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>90.96952896367576</v>
+        <v>172.2820561000717</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>10.10772544040842</v>
+        <v>10.13423859412187</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1714,16 +1714,16 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>382.3165326392974</v>
+        <v>90.96952896367576</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>10.06096138524467</v>
+        <v>10.10772544040842</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1731,16 +1731,16 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>280.0026579245262</v>
+        <v>363.3746407107937</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E59">
-        <v>10.00009492587594</v>
+        <v>10.09374001974427</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1748,16 +1748,16 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>417.1396876647264</v>
+        <v>282.4687395621941</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E60">
-        <v>9.931897325350628</v>
+        <v>10.08816927007836</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1833,16 +1833,16 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>264.2336719606677</v>
+        <v>67.76785620057088</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>9.786432294839544</v>
+        <v>9.681122314367268</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>67.76785620057088</v>
+        <v>414.8606156497276</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E66">
-        <v>9.681122314367268</v>
+        <v>9.647921294179712</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>414.8606156497276</v>
+        <v>201.8943350442094</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E67">
-        <v>9.647921294179712</v>
+        <v>9.61401595448616</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1884,16 +1884,16 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>201.8943350442094</v>
+        <v>28.78850073936652</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>9.61401595448616</v>
+        <v>9.596166913122172</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1901,16 +1901,16 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>28.78850073936652</v>
+        <v>257.5752095275726</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>9.596166913122172</v>
+        <v>9.539822575095279</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1918,16 +1918,16 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>257.5752095275726</v>
+        <v>19.04254615</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>9.539822575095279</v>
+        <v>9.521273075</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1935,16 +1935,16 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>19.04254615</v>
+        <v>332.8072580706314</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E71">
-        <v>9.521273075</v>
+        <v>9.508778802018041</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1952,16 +1952,16 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>332.8072580706314</v>
+        <v>511.501558104464</v>
       </c>
       <c r="C72">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E72">
-        <v>9.508778802018041</v>
+        <v>9.472251076008591</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1969,16 +1969,16 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>511.501558104464</v>
+        <v>94.35717234005878</v>
       </c>
       <c r="C73">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D73">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>9.472251076008591</v>
+        <v>9.435717234005878</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1986,16 +1986,16 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>94.35717234005878</v>
+        <v>337.0672865319751</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E74">
-        <v>9.435717234005878</v>
+        <v>9.362980181443753</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2003,16 +2003,16 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>337.0672865319751</v>
+        <v>74.87486474643704</v>
       </c>
       <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="D75">
-        <v>36</v>
-      </c>
       <c r="E75">
-        <v>9.362980181443753</v>
+        <v>9.35935809330463</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2020,16 +2020,16 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>74.87486474643704</v>
+        <v>18.62486042469231</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>9.35935809330463</v>
+        <v>9.312430212346154</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2037,16 +2037,16 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>18.62486042469231</v>
+        <v>37.23614730716846</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>9.312430212346154</v>
+        <v>9.309036826792115</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2054,16 +2054,16 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>37.23614730716846</v>
+        <v>64.89575635399314</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>9.309036826792115</v>
+        <v>9.270822336284734</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2071,16 +2071,16 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>64.89575635399314</v>
+        <v>148.1413510068576</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>9.270822336284734</v>
+        <v>9.258834437928602</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2139,16 +2139,16 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>206.6412194787875</v>
+        <v>188.1788017644366</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E83">
-        <v>8.984400846903805</v>
+        <v>8.960895322116031</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2156,16 +2156,16 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>403.5449261013423</v>
+        <v>116.1334323061875</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E84">
-        <v>8.967665024474273</v>
+        <v>8.933340946629805</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2173,16 +2173,16 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>188.1788017644366</v>
+        <v>151.3438602944003</v>
       </c>
       <c r="C85">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>8.960895322116031</v>
+        <v>8.902580017317666</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2190,50 +2190,50 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>116.1334323061875</v>
+        <v>309.3099370108556</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E86">
-        <v>8.933340946629805</v>
+        <v>8.837426771738732</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>308.6913339120575</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>35</v>
+      </c>
+      <c r="E87">
+        <v>8.819752397487358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
         <v>94120026</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>220.1469456033265</v>
-      </c>
-      <c r="C87">
-        <v>10</v>
-      </c>
-      <c r="D87">
-        <v>25</v>
-      </c>
-      <c r="E87">
-        <v>8.805877824133058</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>17.58205737424242</v>
       </c>
       <c r="C88">
         <v>10</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>8.791028687121212</v>
+        <v>8.805877824133058</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>43.39289542723131</v>
+        <v>17.58205737424242</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>8.678579085446263</v>
+        <v>8.791028687121212</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2258,16 +2258,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>146.8839268580315</v>
+        <v>43.39289542723131</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D90">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>8.640230991648915</v>
+        <v>8.678579085446263</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2275,16 +2275,16 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>336.9616302380832</v>
+        <v>146.8839268580315</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>8.640041800976492</v>
+        <v>8.640230991648915</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>15.29452189285714</v>
+        <v>100.7430792233922</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>7.647260946428572</v>
+        <v>7.749467632568632</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>135.5704423361628</v>
+        <v>15.29452189285714</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>7.531691240897932</v>
+        <v>7.647260946428572</v>
       </c>
     </row>
     <row r="104" spans="1:5">
